--- a/results/mp/tinybert/corona/confidence/168/0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,154 +40,160 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>to</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
 </sst>
 </file>
@@ -545,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,10 +559,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -614,13 +620,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -632,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -656,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -664,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -682,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -706,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -714,13 +720,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7647058823529411</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -732,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.96875</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -756,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -764,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6948051948051948</v>
+        <v>0.5856164383561644</v>
       </c>
       <c r="C6">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="D6">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -782,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.9583333333333334</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -806,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -814,13 +820,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6666666666666666</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -832,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.9444444444444444</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -856,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -864,13 +870,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4583333333333333</v>
+        <v>0.189922480620155</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -882,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>418</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -906,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -914,13 +920,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3571428571428572</v>
+        <v>0.1409395973154362</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -932,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8627450980392157</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -956,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -964,13 +970,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3133047210300429</v>
+        <v>0.05277777777777778</v>
       </c>
       <c r="C10">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -982,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>160</v>
+        <v>341</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K10">
-        <v>0.85</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1010,217 +1016,121 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.2558139534883721</v>
-      </c>
-      <c r="C11">
-        <v>22</v>
-      </c>
-      <c r="D11">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>64</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L11">
+        <v>65</v>
+      </c>
+      <c r="M11">
+        <v>65</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <v>0.78125</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L13">
+        <v>28</v>
+      </c>
+      <c r="M13">
+        <v>28</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14">
+        <v>0.7758620689655172</v>
+      </c>
+      <c r="L14">
         <v>45</v>
       </c>
-      <c r="M11">
+      <c r="M14">
         <v>45</v>
       </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1625</v>
-      </c>
-      <c r="C12">
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>13</v>
-      </c>
-      <c r="D12">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>67</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L12">
-        <v>42</v>
-      </c>
-      <c r="M12">
-        <v>42</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="C13">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>117</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="L13">
-        <v>46</v>
-      </c>
-      <c r="M13">
-        <v>46</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.1</v>
-      </c>
-      <c r="C14">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>11</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>99</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L14">
-        <v>21</v>
-      </c>
-      <c r="M14">
-        <v>21</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7758620689655172</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1232,21 +1142,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.7692307692307693</v>
+        <v>0.725</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1258,21 +1168,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.7647058823529411</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L17">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M17">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1284,21 +1194,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.6923076923076923</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1315,16 +1225,16 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6896551724137931</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1336,21 +1246,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.69375</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1362,21 +1272,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.64</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1393,16 +1303,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6301369863013698</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L22">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1414,21 +1324,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.5909090909090909</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L23">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1440,21 +1350,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.5882352941176471</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L24">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1466,21 +1376,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.5789473684210527</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1492,21 +1402,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5757575757575758</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1523,16 +1433,16 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5633802816901409</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L27">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="M27">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1544,21 +1454,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5600000000000001</v>
+        <v>0.5625</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1570,21 +1480,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.5091383812010444</v>
       </c>
       <c r="L29">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="M29">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1596,21 +1506,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.4791666666666667</v>
+        <v>0.4508474576271186</v>
       </c>
       <c r="L30">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="M30">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1622,21 +1532,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>75</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.4782608695652174</v>
+        <v>0.4470588235294118</v>
       </c>
       <c r="L31">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="M31">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1648,47 +1558,47 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>48</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32">
+        <v>0.4382022471910113</v>
+      </c>
+      <c r="L32">
+        <v>39</v>
+      </c>
+      <c r="M32">
+        <v>39</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>50</v>
-      </c>
-      <c r="K32">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="L32">
-        <v>13</v>
-      </c>
-      <c r="M32">
-        <v>13</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>15</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.4583333333333333</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L33">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1700,21 +1610,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.4573643410852713</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L34">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1726,21 +1636,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.4571428571428571</v>
+        <v>0.34375</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1752,21 +1662,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.4333333333333333</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1778,21 +1688,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.3157894736842105</v>
+        <v>0.3263598326359833</v>
       </c>
       <c r="L37">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="M37">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1804,21 +1714,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>26</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.3125</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L38">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1830,33 +1740,189 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K39">
+        <v>0.02348993288590604</v>
+      </c>
+      <c r="L39">
+        <v>21</v>
+      </c>
+      <c r="M39">
+        <v>21</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40">
+        <v>0.01833333333333333</v>
+      </c>
+      <c r="L40">
+        <v>22</v>
+      </c>
+      <c r="M40">
+        <v>22</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41">
+        <v>0.01064265247646336</v>
+      </c>
+      <c r="L41">
+        <v>26</v>
+      </c>
+      <c r="M41">
+        <v>28</v>
+      </c>
+      <c r="N41">
+        <v>0.93</v>
+      </c>
+      <c r="O41">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42">
+        <v>0.009359790340696368</v>
+      </c>
+      <c r="L42">
+        <v>25</v>
+      </c>
+      <c r="M42">
+        <v>27</v>
+      </c>
+      <c r="N42">
+        <v>0.93</v>
+      </c>
+      <c r="O42">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K39">
-        <v>0.008018327605956471</v>
-      </c>
-      <c r="L39">
-        <v>14</v>
-      </c>
-      <c r="M39">
-        <v>14</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>1732</v>
+      <c r="K43">
+        <v>0.007807807807807808</v>
+      </c>
+      <c r="L43">
+        <v>39</v>
+      </c>
+      <c r="M43">
+        <v>40</v>
+      </c>
+      <c r="N43">
+        <v>0.97</v>
+      </c>
+      <c r="O43">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>4956</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K44">
+        <v>0.006007393715341959</v>
+      </c>
+      <c r="L44">
+        <v>26</v>
+      </c>
+      <c r="M44">
+        <v>26</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K45">
+        <v>0.00484402247626429</v>
+      </c>
+      <c r="L45">
+        <v>25</v>
+      </c>
+      <c r="M45">
+        <v>29</v>
+      </c>
+      <c r="N45">
+        <v>0.86</v>
+      </c>
+      <c r="O45">
+        <v>0.14</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>5136</v>
       </c>
     </row>
   </sheetData>
